--- a/listApi_id.xlsx
+++ b/listApi_id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\TelegramTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD2500F-5485-4113-9DB0-ACCB4A5A5AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75474D2F-458E-4F13-A7FC-50941FD23643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4575" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{87A217CC-73B9-452A-81AF-69762E8DC797}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>api_id</t>
   </si>
@@ -44,12 +44,6 @@
     <t>api_hash</t>
   </si>
   <si>
-    <t>e16acb030ecec23b3e4236471820b63a</t>
-  </si>
-  <si>
-    <t>acc chính</t>
-  </si>
-  <si>
     <t>SĐT</t>
   </si>
   <si>
@@ -99,6 +93,15 @@
   </si>
   <si>
     <t>+84 765487093</t>
+  </si>
+  <si>
+    <t>261cc9f72021203da950043327e7ee0c</t>
+  </si>
+  <si>
+    <t>Got Session</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -139,12 +142,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,14 +179,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73949A60-9F42-4F24-B741-89C1351D7E18}">
-  <dimension ref="C5:L16"/>
+  <dimension ref="C4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.5703125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
@@ -508,6 +522,11 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -516,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
@@ -525,103 +544,103 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6">
+        <v>22580886</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
-        <v>23795215</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>9727700</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="6">
-        <v>9727700</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>26504965</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="6">
-        <v>26504965</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>25941625</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>14840937</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="6">
-        <v>14840937</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>21148357</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>25360288</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="6">
-        <v>25360288</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L16" s="1">
         <v>7</v>
